--- a/Exp2022/Волонтеры в группе Хайтова.xlsx
+++ b/Exp2022/Волонтеры в группе Хайтова.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Фамилия</t>
   </si>
@@ -41,24 +41,6 @@
   </si>
   <si>
     <t>Адрес регистрации</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>Студент, СЗИУ РАНХиГС, ФМОПИ</t>
-  </si>
-  <si>
-    <t>4017 873635</t>
-  </si>
-  <si>
-    <t>ш. Революции 37к2 кв197</t>
   </si>
   <si>
     <t>Ермолаев</t>
@@ -243,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -285,43 +267,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -336,48 +281,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,15 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +334,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -422,7 +374,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +425,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,127 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,8 +637,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,37 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,26 +708,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,148 +736,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -905,10 +887,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1225,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1259,7 +1241,7 @@
     <col min="9" max="9" width="55.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="15.15" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,44 +1270,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.15" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44786</v>
-      </c>
-      <c r="E2" s="3">
-        <v>44794</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>37806</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>44786</v>
@@ -1334,7 +1298,7 @@
         <v>44794</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>37236</v>
@@ -1343,18 +1307,18 @@
         <v>4022069914</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <v>44786</v>
@@ -1363,36 +1327,36 @@
         <v>44794</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6">
         <v>4016621989</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>44778</v>
       </c>
       <c r="E5" s="3">
-        <v>44784</v>
+        <v>44795</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4">
         <v>36903</v>
@@ -1401,18 +1365,18 @@
         <v>4020710276</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <v>44784</v>
@@ -1421,7 +1385,7 @@
         <v>44791</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4">
         <v>38051</v>
@@ -1430,18 +1394,18 @@
         <v>4018034409</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="15.15" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3">
         <v>44784</v>
@@ -1450,7 +1414,7 @@
         <v>44791</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4">
         <v>38137</v>
@@ -1459,18 +1423,18 @@
         <v>4018085917</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="15.15" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>44778</v>
@@ -1479,27 +1443,27 @@
         <v>44784</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6">
         <v>4016724641</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="15.15" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>44778</v>
@@ -1508,7 +1472,7 @@
         <v>44784</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4">
         <v>36805</v>
@@ -1517,18 +1481,18 @@
         <v>4020687433</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" ht="15.15" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3">
         <v>44778</v>
@@ -1537,7 +1501,7 @@
         <v>44784</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4">
         <v>37180</v>
@@ -1546,18 +1510,18 @@
         <v>4021987182</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" ht="15.15" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3">
         <v>44778</v>
@@ -1566,7 +1530,7 @@
         <v>44784</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4">
         <v>37363</v>
@@ -1575,18 +1539,18 @@
         <v>4022144638</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="15.15" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>44767</v>
@@ -1595,7 +1559,7 @@
         <v>44795</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4">
         <v>31641</v>
@@ -1604,27 +1568,27 @@
         <v>4005870024</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="1:9">
+    <row r="13" ht="15.15" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>44747</v>
+        <v>44778</v>
       </c>
       <c r="E13" s="3">
         <v>44764</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4">
         <v>37973</v>
@@ -1633,27 +1597,27 @@
         <v>4017955976</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3">
-        <v>44746</v>
+        <v>44777</v>
       </c>
       <c r="E14" s="3">
         <v>44764</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4">
         <v>38434</v>
@@ -1662,27 +1626,27 @@
         <v>4018287872</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3">
-        <v>44747</v>
+        <v>44791</v>
       </c>
       <c r="E15" s="3">
         <v>44764</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
         <v>38070</v>
@@ -1691,7 +1655,7 @@
         <v>4018029738</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
